--- a/Analog-Signal-Components/PAX/PAM-2025/PAM-modules/detector-module/detector-module-v2/Jan26_production/pv_module002.xlsx
+++ b/Analog-Signal-Components/PAX/PAM-2025/PAM-modules/detector-module/detector-module-v2/Jan26_production/pv_module002.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jfrothingham/Code/Front-Page/Analog-Signal-Components/PAX/PAM-2025/PAM-modules/detector-module/detector-module-v2/Jan26_production/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D82450-D5A3-2747-B41D-78A949CC959A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCBCD73-25EA-7548-8446-E9A34EDE9861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34200" yWindow="620" windowWidth="38400" windowHeight="21000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50900" yWindow="600" windowWidth="19260" windowHeight="21000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1401,11 +1401,11 @@
   </sheetPr>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="247" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1440,9 +1440,11 @@
         <v>-39.85</v>
       </c>
       <c r="C2" s="5">
-        <v>-58.7</v>
-      </c>
-      <c r="D2" s="6"/>
+        <v>58.7</v>
+      </c>
+      <c r="D2" s="6">
+        <v>5.8700000000000002E-2</v>
+      </c>
       <c r="E2" s="5">
         <v>1</v>
       </c>
@@ -1457,8 +1459,12 @@
       <c r="C3" s="15">
         <v>79</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="15"/>
+      <c r="D3" s="16">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
@@ -1470,8 +1476,10 @@
       <c r="C4" s="9">
         <v>119.3</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="9">
+      <c r="D4" s="10">
+        <v>0.1193</v>
+      </c>
+      <c r="E4" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1486,7 +1494,9 @@
       <c r="D5" s="10">
         <v>0.1963</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
@@ -1499,7 +1509,7 @@
       <c r="D6" s="9">
         <v>0.33810000000000001</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1514,7 +1524,9 @@
       <c r="D7" s="9">
         <v>0.61129999999999995</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
@@ -1527,7 +1539,7 @@
       <c r="D8" s="9">
         <v>1.1279999999999999</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1542,7 +1554,9 @@
       <c r="D9" s="9">
         <v>1.98</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
@@ -1555,7 +1569,7 @@
       <c r="D10" s="9">
         <v>3.5019999999999998</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1570,7 +1584,7 @@
       <c r="D11" s="9">
         <v>4.492</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1585,7 +1599,9 @@
       <c r="D12" s="9">
         <v>4.7649999999999997</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
@@ -1598,7 +1614,9 @@
       <c r="D13" s="9">
         <v>4.9660000000000002</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
@@ -1663,11 +1681,11 @@
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="244" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1704,7 +1722,9 @@
       <c r="C2" s="5">
         <v>63.7</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="6">
+        <v>6.3700000000000007E-2</v>
+      </c>
       <c r="E2" s="5">
         <v>5</v>
       </c>
@@ -1719,8 +1739,12 @@
       <c r="C3" s="15">
         <v>86.8</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="15"/>
+      <c r="D3" s="16">
+        <v>8.6800000000000002E-2</v>
+      </c>
+      <c r="E3" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
@@ -1733,7 +1757,7 @@
       <c r="D4" s="9">
         <v>0.13439999999999999</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="5">
         <v>5</v>
       </c>
     </row>
@@ -1748,7 +1772,9 @@
       <c r="D5" s="9">
         <v>0.22239999999999999</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
@@ -1761,7 +1787,7 @@
       <c r="D6" s="9">
         <v>0.38179999999999997</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="5">
         <v>5</v>
       </c>
     </row>
@@ -1776,7 +1802,9 @@
       <c r="D7" s="9">
         <v>0.67710000000000004</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
@@ -1789,7 +1817,7 @@
       <c r="D8" s="9">
         <v>1.2070000000000001</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="5">
         <v>5</v>
       </c>
     </row>
@@ -1804,7 +1832,9 @@
       <c r="D9" s="9">
         <v>2.0720000000000001</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
@@ -1817,7 +1847,7 @@
       <c r="D10" s="9">
         <v>3.6320000000000001</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="5">
         <v>5</v>
       </c>
     </row>
@@ -1832,7 +1862,7 @@
       <c r="D11" s="9">
         <v>4.5810000000000004</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="5">
         <v>5</v>
       </c>
     </row>
@@ -1847,7 +1877,9 @@
       <c r="D12" s="9">
         <v>4.8550000000000004</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
@@ -1860,7 +1892,9 @@
       <c r="D13" s="9">
         <v>4.9660000000000002</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
@@ -1916,13 +1950,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="226" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1959,87 +1993,119 @@
       <c r="C2" s="5">
         <v>63.9</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="6">
+        <v>6.3899999999999998E-2</v>
+      </c>
       <c r="E2" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13"/>
+      <c r="A3" s="13">
+        <v>-35</v>
+      </c>
       <c r="B3" s="14">
         <v>-34.479999999999997</v>
       </c>
       <c r="C3" s="15">
         <v>83.9</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="15"/>
+      <c r="D3" s="16">
+        <v>8.3900000000000002E-2</v>
+      </c>
+      <c r="E3" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>-30</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="8">
+        <v>-29.48</v>
+      </c>
       <c r="C4" s="9"/>
       <c r="D4" s="10">
         <v>0.12759999999999999</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="7">
+        <v>-25</v>
+      </c>
+      <c r="B5" s="8">
+        <v>-24.48</v>
+      </c>
       <c r="C5" s="9"/>
       <c r="D5" s="10">
         <v>0.20880000000000001</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>-20</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="8">
+        <v>-19.48</v>
+      </c>
       <c r="C6" s="10"/>
       <c r="D6" s="9">
         <v>0.35510000000000003</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
+      <c r="A7" s="7">
+        <v>-15</v>
+      </c>
+      <c r="B7" s="8">
+        <v>-14.48</v>
+      </c>
       <c r="C7" s="10"/>
       <c r="D7" s="9">
         <v>0.62439999999999996</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>-10</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="8">
+        <v>-9.48</v>
+      </c>
       <c r="C8" s="10"/>
       <c r="D8" s="9">
         <v>1.1102000000000001</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
+      <c r="A9" s="7">
+        <v>-5</v>
+      </c>
+      <c r="B9" s="8">
+        <v>-4.4800000000000004</v>
+      </c>
       <c r="C9" s="10"/>
       <c r="D9" s="9">
         <v>1.903</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
@@ -2052,12 +2118,14 @@
       <c r="D10" s="9">
         <v>3.298</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
+      <c r="A11" s="7">
+        <v>1.48</v>
+      </c>
       <c r="B11" s="8">
         <v>2</v>
       </c>
@@ -2065,12 +2133,14 @@
       <c r="D11" s="9">
         <v>3.903</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
+      <c r="A12" s="7">
+        <v>1.58</v>
+      </c>
       <c r="B12" s="8">
         <v>2.1</v>
       </c>
@@ -2078,10 +2148,14 @@
       <c r="D12" s="9">
         <v>3.9449999999999998</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
+      <c r="A13" s="7">
+        <v>1.68</v>
+      </c>
       <c r="B13" s="8">
         <v>2.2000000000000002</v>
       </c>
@@ -2089,36 +2163,60 @@
       <c r="D13" s="9">
         <v>3.9893999999999998</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
+      <c r="A14" s="11">
+        <v>1.69</v>
+      </c>
       <c r="B14" s="12">
         <v>2.21</v>
       </c>
       <c r="C14" s="10">
         <v>18</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="9"/>
+      <c r="D14" s="10">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E14" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
+      <c r="A15" s="11">
+        <v>2</v>
+      </c>
       <c r="B15" s="12">
+        <v>2.52</v>
+      </c>
+      <c r="C15" s="10">
+        <v>18</v>
+      </c>
+      <c r="D15" s="10">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E15" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
+        <v>5</v>
+      </c>
+      <c r="B16" s="12">
         <v>5.52</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C16" s="10">
         <v>14</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
+      <c r="D16" s="10">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E16" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
@@ -2134,11 +2232,18 @@
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+    </row>
     <row r="20" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
@@ -2155,11 +2260,11 @@
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="253" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2196,7 +2301,9 @@
       <c r="C2" s="5">
         <v>62</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="6">
+        <v>6.2E-2</v>
+      </c>
       <c r="E2" s="5">
         <v>15</v>
       </c>
@@ -2212,8 +2319,12 @@
       <c r="C3" s="15">
         <v>82.4</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="15"/>
+      <c r="D3" s="16">
+        <v>8.2400000000000001E-2</v>
+      </c>
+      <c r="E3" s="5">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
@@ -2227,7 +2338,7 @@
       <c r="D4" s="10">
         <v>0.124</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="5">
         <v>15</v>
       </c>
     </row>
@@ -2243,7 +2354,9 @@
       <c r="D5" s="10">
         <v>0.20300000000000001</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="5">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
@@ -2257,7 +2370,7 @@
       <c r="D6" s="9">
         <v>0.34589999999999999</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="5">
         <v>15</v>
       </c>
     </row>
@@ -2273,7 +2386,9 @@
       <c r="D7" s="9">
         <v>0.60840000000000005</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="5">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
@@ -2287,7 +2402,7 @@
       <c r="D8" s="9">
         <v>1.0860000000000001</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="5">
         <v>15</v>
       </c>
     </row>
@@ -2303,7 +2418,9 @@
       <c r="D9" s="9">
         <v>1.8740000000000001</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="5">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
@@ -2317,7 +2434,7 @@
       <c r="D10" s="9">
         <v>3.1920000000000002</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="5">
         <v>15</v>
       </c>
     </row>
@@ -2333,7 +2450,7 @@
       <c r="D11" s="9">
         <v>3.996</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="5">
         <v>15</v>
       </c>
     </row>
@@ -2349,7 +2466,9 @@
       <c r="D12" s="9">
         <v>4.2370000000000001</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="5">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
@@ -2363,7 +2482,9 @@
       <c r="D13" s="9">
         <v>4.484</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="5">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
@@ -2377,7 +2498,9 @@
       <c r="D14" s="9">
         <v>4.7510000000000003</v>
       </c>
-      <c r="E14" s="9"/>
+      <c r="E14" s="5">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
@@ -2391,7 +2514,9 @@
       <c r="D15" s="10">
         <v>4.9660000000000002</v>
       </c>
-      <c r="E15" s="10"/>
+      <c r="E15" s="5">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
@@ -2435,11 +2560,11 @@
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="244" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2477,7 +2602,9 @@
       <c r="C2" s="5">
         <v>59</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="6">
+        <v>5.8999999999999997E-2</v>
+      </c>
       <c r="E2" s="5">
         <v>18</v>
       </c>
@@ -2493,8 +2620,12 @@
       <c r="C3" s="15">
         <v>76.3</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="15"/>
+      <c r="D3" s="16">
+        <v>7.6300000000000007E-2</v>
+      </c>
+      <c r="E3" s="5">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
@@ -2508,7 +2639,7 @@
       <c r="D4" s="10">
         <v>0.1147</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="5">
         <v>18</v>
       </c>
     </row>
@@ -2524,7 +2655,9 @@
       <c r="D5" s="10">
         <v>0.18659999999999999</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="5">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
@@ -2538,7 +2671,7 @@
       <c r="D6" s="9">
         <v>0.31719999999999998</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="5">
         <v>18</v>
       </c>
     </row>
@@ -2554,7 +2687,9 @@
       <c r="D7" s="9">
         <v>0.55649999999999999</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="5">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
@@ -2568,7 +2703,7 @@
       <c r="D8" s="9">
         <v>0.99529999999999996</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="5">
         <v>18</v>
       </c>
     </row>
@@ -2584,7 +2719,9 @@
       <c r="D9" s="9">
         <v>1.7250000000000001</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="5">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
@@ -2598,7 +2735,7 @@
       <c r="D10" s="9">
         <v>2.9390000000000001</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="5">
         <v>18</v>
       </c>
     </row>
@@ -2614,7 +2751,7 @@
       <c r="D11" s="9">
         <v>3.2850000000000001</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="5">
         <v>18</v>
       </c>
     </row>
@@ -2630,7 +2767,9 @@
       <c r="D12" s="9">
         <v>3.6779999999999999</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="5">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
@@ -2644,7 +2783,9 @@
       <c r="D13" s="9">
         <v>4.12</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="5">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
@@ -2658,7 +2799,9 @@
       <c r="D14" s="9">
         <v>4.6159999999999997</v>
       </c>
-      <c r="E14" s="9"/>
+      <c r="E14" s="5">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
@@ -2672,7 +2815,9 @@
       <c r="D15" s="10">
         <v>4.8860000000000001</v>
       </c>
-      <c r="E15" s="9"/>
+      <c r="E15" s="5">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
@@ -2686,7 +2831,9 @@
       <c r="D16" s="10">
         <v>4.9669999999999996</v>
       </c>
-      <c r="E16" s="10"/>
+      <c r="E16" s="5">
+        <v>18</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
